--- a/documentos/modelos/modelo_campeonato.xlsx
+++ b/documentos/modelos/modelo_campeonato.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\campeonato\documentos\modelos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F81A4CA-C6F8-4CAD-B970-1AEE2023904B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3A56E7-6C02-4DD4-911F-73837CDA47EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1BEC0507-0072-40D5-BA64-7CB63EA43552}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>id estrutura</t>
   </si>
@@ -44,36 +44,38 @@
     <t>numero de equipes</t>
   </si>
   <si>
-    <t>liga</t>
-  </si>
-  <si>
-    <t>Copa 32</t>
-  </si>
-  <si>
     <t>numero de grupos</t>
   </si>
   <si>
-    <t>Copa 16</t>
-  </si>
-  <si>
-    <t>Copa 8</t>
-  </si>
-  <si>
     <t>tipo</t>
   </si>
   <si>
-    <t>fase de grupos</t>
-  </si>
-  <si>
     <t>Ponto corridos</t>
+  </si>
+  <si>
+    <t>Copa</t>
+  </si>
+  <si>
+    <t>Liga</t>
+  </si>
+  <si>
+    <t>Mata-mata</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -101,8 +103,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -118,6 +121,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3F5E2C74-C7FE-4BC6-A44A-4A898CAFF0C2}" name="Tabela1" displayName="Tabela1" ref="D4:H10" totalsRowShown="0">
+  <autoFilter ref="D4:H10" xr:uid="{3F5E2C74-C7FE-4BC6-A44A-4A898CAFF0C2}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{30BC3DD8-6761-4C09-BA75-48A61583051D}" name="id estrutura"/>
+    <tableColumn id="2" xr3:uid="{E4BB2DC3-6D25-4DF8-A693-24DF8B062C78}" name="tipo"/>
+    <tableColumn id="3" xr3:uid="{BED9838A-2CB5-48C2-8FC4-DE444C5CCA90}" name="formato"/>
+    <tableColumn id="4" xr3:uid="{21F436D4-CEF1-47F1-AF2E-8A0D08A22E50}" name="numero de equipes"/>
+    <tableColumn id="5" xr3:uid="{F4EB8591-1742-491C-BA55-E97881EA9D06}" name="numero de grupos"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -417,27 +440,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57BB2867-861B-47E2-9E6A-3BC124D43471}">
-  <dimension ref="D4:H9"/>
+  <dimension ref="D4:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
         <v>1</v>
@@ -446,18 +469,18 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="4:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G5">
         <v>32</v>
@@ -466,69 +489,99 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>3</v>
       </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="H8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>5</v>
       </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
       <c r="F9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G9">
+        <v>16</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
         <v>8</v>
       </c>
-      <c r="H9">
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
         <v>2</v>
       </c>
+    </row>
+    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="M12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>